--- a/biology/Zoologie/Ding_Dog_Daddy/Ding_Dog_Daddy.xlsx
+++ b/biology/Zoologie/Ding_Dog_Daddy/Ding_Dog_Daddy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ding Dog Daddy est un court métrage d'animation américain réalisé par Friz Freleng, sorti en 1942.
 Produit par Leon Schlesinger et distribué par Warner Bros. Cartoons, ce cartoon fait partie de la série Merrie Melodies.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Friz Freleng
 Scénario : Inconnu
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Version originale
-Pinto Colvig : Willoughby le chien (voix)
+          <t>Version originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pinto Colvig : Willoughby le chien (voix)
 Mel Blanc : Hector le bouledogue (voix)</t>
         </is>
       </c>
